--- a/medicine/Psychotrope/Bière_noire/Bière_noire.xlsx
+++ b/medicine/Psychotrope/Bière_noire/Bière_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_noire</t>
+          <t>Bière_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière noire est un type de bière à la robe très foncée obtenue par l'utilisation de malts très torréfiés. Il en existe plusieurs sortes, issues soit d'une fermentation basse, telles les Schwarzbiers allemandes ou les Black Lager américaines, soit d'une fermentation haute, comme les porters ou les stouts anglo-saxons. 
 </t>
